--- a/lab1_template.xlsx
+++ b/lab1_template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>Расчет заработной платы сотрудников предприятия ООО "Изумруд"</t>
   </si>
@@ -52,55 +52,70 @@
     <t>Зам. директора</t>
   </si>
   <si>
-    <t>05.16.2003</t>
+    <t>02.08.2010</t>
   </si>
   <si>
     <t>Коробова П.Н</t>
   </si>
   <si>
+    <t>Менеджер</t>
+  </si>
+  <si>
+    <t>10.19.2005</t>
+  </si>
+  <si>
+    <t>Морозов И.Р.</t>
+  </si>
+  <si>
     <t>Водитель</t>
   </si>
   <si>
-    <t>10.02.2006</t>
-  </si>
-  <si>
-    <t>Морозов И.Р.</t>
+    <t>04.04.2008</t>
+  </si>
+  <si>
+    <t>Ромашова П.Т.</t>
+  </si>
+  <si>
+    <t>Секетарь</t>
+  </si>
+  <si>
+    <t>07.14.2008</t>
+  </si>
+  <si>
+    <t>Петров Г.Т.</t>
   </si>
   <si>
     <t>Бухгалтер</t>
   </si>
   <si>
-    <t>08.24.2002</t>
-  </si>
-  <si>
-    <t>Ромашова П.Т.</t>
-  </si>
-  <si>
-    <t>11.28.2011</t>
-  </si>
-  <si>
-    <t>Петров Г.Т.</t>
-  </si>
-  <si>
-    <t>Менеджер</t>
-  </si>
-  <si>
-    <t>10.14.2005</t>
+    <t>08.29.2011</t>
   </si>
   <si>
     <t>Смирнов С.И.</t>
   </si>
   <si>
-    <t>07.27.2005</t>
+    <t>Директор</t>
+  </si>
+  <si>
+    <t>06.05.2004</t>
   </si>
   <si>
     <t>Соколова О.С.</t>
   </si>
   <si>
-    <t>05.08.2007</t>
-  </si>
-  <si>
-    <t>Курс доллара</t>
+    <t>09.19.2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Курс доллара: </t>
+  </si>
+  <si>
+    <t>Средняя зарплата, руб:</t>
+  </si>
+  <si>
+    <t>Максимальная зарплата, руб:</t>
+  </si>
+  <si>
+    <t>Минимальная зарплата, руб:</t>
   </si>
 </sst>
 </file>
@@ -470,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I14"/>
+  <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,7 +494,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="5"/>
-    <col customWidth="1" max="2" min="2" width="15"/>
+    <col customWidth="1" max="2" min="2" width="28"/>
     <col customWidth="1" max="3" min="3" width="16"/>
     <col customWidth="1" max="4" min="4" width="18"/>
     <col customWidth="1" max="5" min="5" width="18"/>
@@ -588,10 +603,10 @@
         <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" s="3" t="n"/>
       <c r="F8" s="3" t="n"/>
@@ -604,13 +619,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" s="3" t="n"/>
       <c r="F9" s="3" t="n"/>
@@ -623,13 +638,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10" s="3" t="n"/>
       <c r="F10" s="3" t="n"/>
@@ -642,13 +657,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E11" s="3" t="n"/>
       <c r="F11" s="3" t="n"/>
@@ -662,12 +677,30 @@
       <c r="I12" s="3" t="n"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="B14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>48</v>
-      </c>
+      <c r="B14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>41.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2" t="n"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="2" t="n"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/lab1_template.xlsx
+++ b/lab1_template.xlsx
@@ -123,7 +123,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\.mm\.dd"/>
-    <numFmt numFmtId="170" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -245,21 +245,17 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -268,7 +264,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -574,7 +574,7 @@
   <dimension ref="A2:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,16 +588,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -627,7 +627,7 @@
       <c r="I4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -644,26 +644,26 @@
       <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>1000</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <f>E5*0.2</f>
         <v>200</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <f>F5+E5</f>
         <v>1200</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <f>G5*0.13</f>
         <v>156</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="5">
         <f>G5-H5</f>
         <v>1044</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="7">
         <f>I5/$C$14</f>
         <v>21.75</v>
       </c>
@@ -681,27 +681,27 @@
       <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>2000</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="4">
         <f t="shared" ref="F6:F11" si="0">E6*0.2</f>
         <v>400</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <f t="shared" ref="G6:G11" si="1">F6+E6</f>
         <v>2400</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="4">
         <f t="shared" ref="H6:H11" si="2">G6*0.13</f>
         <v>312</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="5">
         <f t="shared" ref="I6:I11" si="3">G6-H6</f>
         <v>2088</v>
       </c>
-      <c r="J6" s="9">
-        <f t="shared" ref="J6:J12" si="4">I6/$C$14</f>
+      <c r="J6" s="7">
+        <f t="shared" ref="J6:J11" si="4">I6/$C$14</f>
         <v>43.5</v>
       </c>
     </row>
@@ -718,26 +718,26 @@
       <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>3000</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="4">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="4">
         <f t="shared" si="1"/>
         <v>3600</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="4">
         <f t="shared" si="2"/>
         <v>468</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="5">
         <f t="shared" si="3"/>
         <v>3132</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="7">
         <f t="shared" si="4"/>
         <v>65.25</v>
       </c>
@@ -755,26 +755,26 @@
       <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>3500</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="4">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="4">
         <f t="shared" si="1"/>
         <v>4200</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="4">
         <f t="shared" si="2"/>
         <v>546</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="5">
         <f t="shared" si="3"/>
         <v>3654</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="7">
         <f t="shared" si="4"/>
         <v>76.125</v>
       </c>
@@ -792,26 +792,26 @@
       <c r="D9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>5550</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="4">
         <f t="shared" si="0"/>
         <v>1110</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="4">
         <f t="shared" si="1"/>
         <v>6660</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="4">
         <f t="shared" si="2"/>
         <v>865.80000000000007</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="5">
         <f t="shared" si="3"/>
         <v>5794.2</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="7">
         <f t="shared" si="4"/>
         <v>120.71249999999999</v>
       </c>
@@ -829,26 +829,26 @@
       <c r="D10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>5000</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="4">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <f t="shared" si="1"/>
         <v>6000</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="4">
         <f t="shared" si="2"/>
         <v>780</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="5">
         <f t="shared" si="3"/>
         <v>5220</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="7">
         <f t="shared" si="4"/>
         <v>108.75</v>
       </c>
@@ -866,67 +866,67 @@
       <c r="D11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>80000</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="4">
         <f t="shared" si="0"/>
         <v>16000</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <f t="shared" si="1"/>
         <v>96000</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="4">
         <f t="shared" si="2"/>
         <v>12480</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="5">
         <f t="shared" si="3"/>
         <v>83520</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="7">
         <f t="shared" si="4"/>
         <v>1740</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G12" s="2"/>
-      <c r="H12" s="6">
+      <c r="H12" s="4">
         <f>SUM(H5:H11)</f>
         <v>15607.8</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="4">
         <f>SUM(I5:I11)</f>
         <v>104452.2</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="8">
         <f>SUM(J5:J11)</f>
         <v>2176.0875000000001</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="9">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="11">
         <f>AVERAGE(I5:I11)</f>
         <v>14921.742857142857</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="11">
         <f>MAX(I5:I11)</f>
         <v>83520</v>
       </c>

--- a/lab1_template.xlsx
+++ b/lab1_template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>Расчет заработной платы сотрудников предприятия ООО "Изумруд"</t>
   </si>
@@ -49,28 +49,25 @@
     <t>Иванов И.М.</t>
   </si>
   <si>
-    <t>Зам. директора</t>
-  </si>
-  <si>
-    <t>02.08.2010</t>
+    <t>Менеджер</t>
+  </si>
+  <si>
+    <t>05.22.2002</t>
   </si>
   <si>
     <t>Коробова П.Н</t>
   </si>
   <si>
-    <t>Менеджер</t>
-  </si>
-  <si>
-    <t>10.19.2005</t>
+    <t>Водитель</t>
+  </si>
+  <si>
+    <t>07.08.2010</t>
   </si>
   <si>
     <t>Морозов И.Р.</t>
   </si>
   <si>
-    <t>Водитель</t>
-  </si>
-  <si>
-    <t>04.04.2008</t>
+    <t>06.07.2016</t>
   </si>
   <si>
     <t>Ромашова П.Т.</t>
@@ -79,31 +76,28 @@
     <t>Секетарь</t>
   </si>
   <si>
-    <t>07.14.2008</t>
+    <t>04.02.2016</t>
   </si>
   <si>
     <t>Петров Г.Т.</t>
   </si>
   <si>
-    <t>Бухгалтер</t>
-  </si>
-  <si>
-    <t>08.29.2011</t>
+    <t>Строитель</t>
+  </si>
+  <si>
+    <t>05.17.2000</t>
   </si>
   <si>
     <t>Смирнов С.И.</t>
   </si>
   <si>
-    <t>Директор</t>
-  </si>
-  <si>
-    <t>06.05.2004</t>
+    <t>02.02.2010</t>
   </si>
   <si>
     <t>Соколова О.С.</t>
   </si>
   <si>
-    <t>09.19.2003</t>
+    <t>05.14.2007</t>
   </si>
   <si>
     <t xml:space="preserve">Курс доллара: </t>
@@ -584,10 +578,10 @@
         <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="E7" s="3" t="n"/>
       <c r="F7" s="3" t="n"/>
@@ -600,13 +594,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="E8" s="3" t="n"/>
       <c r="F8" s="3" t="n"/>
@@ -619,13 +613,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="E9" s="3" t="n"/>
       <c r="F9" s="3" t="n"/>
@@ -638,13 +632,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="E10" s="3" t="n"/>
       <c r="F10" s="3" t="n"/>
@@ -657,13 +651,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E11" s="3" t="n"/>
       <c r="F11" s="3" t="n"/>
@@ -678,27 +672,27 @@
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>41.3</v>
+        <v>43.6</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="n"/>
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="n"/>
     </row>
     <row r="17" spans="1:9">
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2" t="n"/>
     </row>

--- a/lab1_template.xlsx
+++ b/lab1_template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Расчет заработной платы сотрудников предприятия ООО "Изумруд"</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Курс доллара:</t>
+  </si>
+  <si>
+    <t>Минимальная заработная плата:</t>
   </si>
 </sst>
 </file>
@@ -571,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J16"/>
+  <dimension ref="A2:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,7 +651,7 @@
         <v>1000</v>
       </c>
       <c r="F5" s="4">
-        <f>E5*0.2</f>
+        <f>0.2*E5</f>
         <v>200</v>
       </c>
       <c r="G5" s="4">
@@ -685,7 +688,7 @@
         <v>2000</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" ref="F6:F11" si="0">E6*0.2</f>
+        <f t="shared" ref="F6:F11" si="0">0.2*E6</f>
         <v>400</v>
       </c>
       <c r="G6" s="4">
@@ -891,7 +894,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G12" s="2"/>
+      <c r="G12" s="4">
+        <f>SUM(G5:G11)</f>
+        <v>120060</v>
+      </c>
       <c r="H12" s="4">
         <f>SUM(H5:H11)</f>
         <v>15607.8</v>
@@ -929,6 +935,15 @@
       <c r="C16" s="11">
         <f>MAX(I5:I11)</f>
         <v>83520</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="11">
+        <f>MAX(I6:I12)</f>
+        <v>104452.2</v>
       </c>
     </row>
   </sheetData>

--- a/lab1_template.xlsx
+++ b/lab1_template.xlsx
@@ -49,55 +49,55 @@
     <t>Иванов И.М.</t>
   </si>
   <si>
+    <t>Водитель</t>
+  </si>
+  <si>
+    <t>11.07.2013</t>
+  </si>
+  <si>
+    <t>Коробова П.Н</t>
+  </si>
+  <si>
     <t>Менеджер</t>
   </si>
   <si>
-    <t>05.22.2002</t>
-  </si>
-  <si>
-    <t>Коробова П.Н</t>
-  </si>
-  <si>
-    <t>Водитель</t>
-  </si>
-  <si>
-    <t>07.08.2010</t>
+    <t>03.26.2010</t>
   </si>
   <si>
     <t>Морозов И.Р.</t>
   </si>
   <si>
-    <t>06.07.2016</t>
+    <t>Директор</t>
+  </si>
+  <si>
+    <t>04.29.2002</t>
   </si>
   <si>
     <t>Ромашова П.Т.</t>
   </si>
   <si>
-    <t>Секетарь</t>
-  </si>
-  <si>
-    <t>04.02.2016</t>
+    <t>Строитель</t>
+  </si>
+  <si>
+    <t>05.18.2002</t>
   </si>
   <si>
     <t>Петров Г.Т.</t>
   </si>
   <si>
-    <t>Строитель</t>
-  </si>
-  <si>
-    <t>05.17.2000</t>
+    <t>01.13.2013</t>
   </si>
   <si>
     <t>Смирнов С.И.</t>
   </si>
   <si>
-    <t>02.02.2010</t>
+    <t>01.07.2009</t>
   </si>
   <si>
     <t>Соколова О.С.</t>
   </si>
   <si>
-    <t>05.14.2007</t>
+    <t>07.10.2001</t>
   </si>
   <si>
     <t xml:space="preserve">Курс доллара: </t>
@@ -578,10 +578,10 @@
         <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="3" t="n"/>
       <c r="F7" s="3" t="n"/>
@@ -594,13 +594,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" s="3" t="n"/>
       <c r="F8" s="3" t="n"/>
@@ -613,10 +613,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>23</v>
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>25</v>
@@ -654,7 +654,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>27</v>
@@ -675,7 +675,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>43.6</v>
+        <v>46.1</v>
       </c>
     </row>
     <row r="15" spans="1:9">

--- a/lab1_template.xlsx
+++ b/lab1_template.xlsx
@@ -287,6 +287,904 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>ЗП</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet!$B$5:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Иванов И.М.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Коробова П.Н</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Морозов И.Р.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ромашова П.Т.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Петров Г.Т.</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Смирнов С.И.</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Соколова О.С.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$I$5:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.00\ "₽"</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1044</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2088</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3132</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3654</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5794.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5220</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83520</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-90AD-4226-B639-914E565727B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="981700288"/>
+        <c:axId val="981700704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="981700288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="981700704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="981700704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#\ ##0.00\ &quot;₽&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="981700288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1109662</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>747712</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -576,8 +1474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,8 +1840,8 @@
         <v>32</v>
       </c>
       <c r="C17" s="11">
-        <f>MAX(I6:I12)</f>
-        <v>104452.2</v>
+        <f>MIN(I5:I11)</f>
+        <v>1044</v>
       </c>
     </row>
   </sheetData>
@@ -951,5 +1849,6 @@
     <mergeCell ref="B2:I2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/lab1_template.xlsx
+++ b/lab1_template.xlsx
@@ -239,9 +239,6 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -252,9 +249,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -272,6 +266,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1475,7 +1475,7 @@
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1489,357 +1489,357 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>1000</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <f>0.2*E5</f>
         <v>200</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f>F5+E5</f>
         <v>1200</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <f>G5*0.13</f>
         <v>156</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <f>G5-H5</f>
         <v>1044</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="5">
         <f>I5/$C$14</f>
         <v>21.75</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>2000</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <f t="shared" ref="F6:F11" si="0">0.2*E6</f>
         <v>400</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="1">F6+E6</f>
         <v>2400</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <f t="shared" ref="H6:H11" si="2">G6*0.13</f>
         <v>312</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <f t="shared" ref="I6:I11" si="3">G6-H6</f>
         <v>2088</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="5">
         <f t="shared" ref="J6:J11" si="4">I6/$C$14</f>
         <v>43.5</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>3000</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <f t="shared" si="1"/>
         <v>3600</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <f t="shared" si="2"/>
         <v>468</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <f t="shared" si="3"/>
         <v>3132</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="5">
         <f t="shared" si="4"/>
         <v>65.25</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>3500</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <f t="shared" si="1"/>
         <v>4200</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <f t="shared" si="2"/>
         <v>546</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <f t="shared" si="3"/>
         <v>3654</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="5">
         <f t="shared" si="4"/>
         <v>76.125</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>5550</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <f t="shared" si="0"/>
         <v>1110</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <f t="shared" si="1"/>
         <v>6660</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <f t="shared" si="2"/>
         <v>865.80000000000007</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <f t="shared" si="3"/>
         <v>5794.2</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="5">
         <f t="shared" si="4"/>
         <v>120.71249999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>5000</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <f t="shared" si="1"/>
         <v>6000</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <f t="shared" si="2"/>
         <v>780</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <f t="shared" si="3"/>
         <v>5220</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="5">
         <f t="shared" si="4"/>
         <v>108.75</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>80000</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <f t="shared" si="0"/>
         <v>16000</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <f t="shared" si="1"/>
         <v>96000</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <f t="shared" si="2"/>
         <v>12480</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <f t="shared" si="3"/>
         <v>83520</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="5">
         <f t="shared" si="4"/>
         <v>1740</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <f>SUM(G5:G11)</f>
         <v>120060</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <f>SUM(H5:H11)</f>
         <v>15607.8</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <f>SUM(I5:I11)</f>
         <v>104452.2</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="6">
         <f>SUM(J5:J11)</f>
         <v>2176.0875000000001</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="7">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="9">
         <f>AVERAGE(I5:I11)</f>
         <v>14921.742857142857</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="9">
         <f>MAX(I5:I11)</f>
         <v>83520</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="9">
         <f>MIN(I5:I11)</f>
         <v>1044</v>
       </c>

--- a/lab1_template.xlsx
+++ b/lab1_template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>Расчет заработной платы сотрудников предприятия ООО "Изумруд"</t>
   </si>
@@ -49,55 +49,58 @@
     <t>Иванов И.М.</t>
   </si>
   <si>
-    <t>Бухгалтер</t>
-  </si>
-  <si>
-    <t>02.04.2012</t>
+    <t>Директор</t>
+  </si>
+  <si>
+    <t>11.09.2016</t>
   </si>
   <si>
     <t>Коробова П.Н</t>
   </si>
   <si>
+    <t>Секетарь</t>
+  </si>
+  <si>
+    <t>12.07.2009</t>
+  </si>
+  <si>
+    <t>Морозов И.Р.</t>
+  </si>
+  <si>
     <t>Строитель</t>
   </si>
   <si>
-    <t>06.05.2005</t>
-  </si>
-  <si>
-    <t>Морозов И.Р.</t>
-  </si>
-  <si>
-    <t>Секетарь</t>
-  </si>
-  <si>
-    <t>22.01.2016</t>
+    <t>27.06.2003</t>
   </si>
   <si>
     <t>Петров Г.Т.</t>
   </si>
   <si>
-    <t>01.10.2014</t>
+    <t>Менеджер</t>
+  </si>
+  <si>
+    <t>21.06.2014</t>
   </si>
   <si>
     <t>Ромашова П.Т.</t>
   </si>
   <si>
-    <t>Водитель</t>
-  </si>
-  <si>
-    <t>05.08.2006</t>
+    <t>Зам. директора</t>
+  </si>
+  <si>
+    <t>08.10.2014</t>
   </si>
   <si>
     <t>Смирнов С.И.</t>
   </si>
   <si>
-    <t>18.04.2007</t>
+    <t>30.01.2017</t>
   </si>
   <si>
     <t>Соколова О.С.</t>
   </si>
   <si>
-    <t>17.12.2014</t>
+    <t>31.12.2010</t>
   </si>
   <si>
     <t xml:space="preserve">Курс доллара: </t>
@@ -592,10 +595,10 @@
         <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" s="3" t="n"/>
       <c r="F8" s="3" t="n"/>
@@ -608,13 +611,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" s="3" t="n"/>
       <c r="F9" s="3" t="n"/>
@@ -627,13 +630,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" s="3" t="n"/>
       <c r="F10" s="3" t="n"/>
@@ -646,13 +649,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" s="3" t="n"/>
       <c r="F11" s="3" t="n"/>
@@ -667,27 +670,27 @@
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>53.7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="n"/>
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="n"/>
     </row>
     <row r="17" spans="1:9">
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="2" t="n"/>
     </row>

--- a/lab1_template.xlsx
+++ b/lab1_template.xlsx
@@ -46,61 +46,61 @@
     <t>Сумма к выдаче, $</t>
   </si>
   <si>
+    <t>Петров Г.Т.</t>
+  </si>
+  <si>
+    <t>Секетарь</t>
+  </si>
+  <si>
+    <t>21.01.2003</t>
+  </si>
+  <si>
+    <t>Ромашова П.Т.</t>
+  </si>
+  <si>
+    <t>Строитель</t>
+  </si>
+  <si>
+    <t>25.12.2004</t>
+  </si>
+  <si>
+    <t>Смирнов С.И.</t>
+  </si>
+  <si>
+    <t>Бухгалтер</t>
+  </si>
+  <si>
+    <t>17.09.2003</t>
+  </si>
+  <si>
+    <t>Морозов И.Р.</t>
+  </si>
+  <si>
+    <t>Водитель</t>
+  </si>
+  <si>
+    <t>03.10.2012</t>
+  </si>
+  <si>
+    <t>Соколова О.С.</t>
+  </si>
+  <si>
+    <t>24.03.2008</t>
+  </si>
+  <si>
+    <t>Коробова П.Н</t>
+  </si>
+  <si>
+    <t>26.09.2009</t>
+  </si>
+  <si>
     <t>Иванов И.М.</t>
   </si>
   <si>
-    <t>Директор</t>
-  </si>
-  <si>
-    <t>11.09.2016</t>
-  </si>
-  <si>
-    <t>Коробова П.Н</t>
-  </si>
-  <si>
-    <t>Секетарь</t>
-  </si>
-  <si>
-    <t>12.07.2009</t>
-  </si>
-  <si>
-    <t>Морозов И.Р.</t>
-  </si>
-  <si>
-    <t>Строитель</t>
-  </si>
-  <si>
-    <t>27.06.2003</t>
-  </si>
-  <si>
-    <t>Петров Г.Т.</t>
-  </si>
-  <si>
     <t>Менеджер</t>
   </si>
   <si>
-    <t>21.06.2014</t>
-  </si>
-  <si>
-    <t>Ромашова П.Т.</t>
-  </si>
-  <si>
-    <t>Зам. директора</t>
-  </si>
-  <si>
-    <t>08.10.2014</t>
-  </si>
-  <si>
-    <t>Смирнов С.И.</t>
-  </si>
-  <si>
-    <t>30.01.2017</t>
-  </si>
-  <si>
-    <t>Соколова О.С.</t>
-  </si>
-  <si>
-    <t>31.12.2010</t>
+    <t>15.08.2017</t>
   </si>
   <si>
     <t xml:space="preserve">Курс доллара: </t>
@@ -119,7 +119,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt formatCode="DD/MM/YY" numFmtId="164"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -169,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -178,6 +180,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -540,7 +545,7 @@
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="3" t="n"/>
@@ -559,7 +564,7 @@
       <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="3" t="n"/>
@@ -578,7 +583,7 @@
       <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="3" t="n"/>
@@ -597,7 +602,7 @@
       <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="3" t="n"/>
@@ -614,10 +619,10 @@
         <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="E9" s="3" t="n"/>
       <c r="F9" s="3" t="n"/>
@@ -630,13 +635,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>26</v>
+      <c r="D10" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="E10" s="3" t="n"/>
       <c r="F10" s="3" t="n"/>
@@ -649,12 +654,12 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="3" t="n"/>

--- a/lab1_template.xlsx
+++ b/lab1_template.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>Расчет заработной платы сотрудников предприятия ООО "Изумруд"</t>
   </si>
@@ -46,13 +46,43 @@
     <t>Сумма к выдаче, $</t>
   </si>
   <si>
+    <t>Коробова П.Н</t>
+  </si>
+  <si>
+    <t>Директор</t>
+  </si>
+  <si>
+    <t>18.06.2006</t>
+  </si>
+  <si>
+    <t>Смирнов С.И.</t>
+  </si>
+  <si>
+    <t>Бухгалтер</t>
+  </si>
+  <si>
+    <t>01.11.2008</t>
+  </si>
+  <si>
+    <t>Соколова О.С.</t>
+  </si>
+  <si>
+    <t>09.07.2013</t>
+  </si>
+  <si>
     <t>Петров Г.Т.</t>
   </si>
   <si>
     <t>Секетарь</t>
   </si>
   <si>
-    <t>21.01.2003</t>
+    <t>28.03.2005</t>
+  </si>
+  <si>
+    <t>Иванов И.М.</t>
+  </si>
+  <si>
+    <t>20.10.2012</t>
   </si>
   <si>
     <t>Ромашова П.Т.</t>
@@ -61,46 +91,13 @@
     <t>Строитель</t>
   </si>
   <si>
-    <t>25.12.2004</t>
-  </si>
-  <si>
-    <t>Смирнов С.И.</t>
-  </si>
-  <si>
-    <t>Бухгалтер</t>
-  </si>
-  <si>
-    <t>17.09.2003</t>
+    <t>21.10.2002</t>
   </si>
   <si>
     <t>Морозов И.Р.</t>
   </si>
   <si>
-    <t>Водитель</t>
-  </si>
-  <si>
-    <t>03.10.2012</t>
-  </si>
-  <si>
-    <t>Соколова О.С.</t>
-  </si>
-  <si>
-    <t>24.03.2008</t>
-  </si>
-  <si>
-    <t>Коробова П.Н</t>
-  </si>
-  <si>
-    <t>26.09.2009</t>
-  </si>
-  <si>
-    <t>Иванов И.М.</t>
-  </si>
-  <si>
-    <t>Менеджер</t>
-  </si>
-  <si>
-    <t>15.08.2017</t>
+    <t>27.02.2001</t>
   </si>
   <si>
     <t xml:space="preserve">Курс доллара: </t>
@@ -581,10 +578,10 @@
         <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="E7" s="3" t="n"/>
       <c r="F7" s="3" t="n"/>
@@ -597,13 +594,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="E8" s="3" t="n"/>
       <c r="F8" s="3" t="n"/>
@@ -616,13 +613,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="E9" s="3" t="n"/>
       <c r="F9" s="3" t="n"/>
@@ -635,10 +632,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>25</v>
@@ -657,10 +654,10 @@
         <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="E11" s="3" t="n"/>
       <c r="F11" s="3" t="n"/>
@@ -675,7 +672,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>48</v>
@@ -683,19 +680,19 @@
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="n"/>
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="n"/>
     </row>
     <row r="17" spans="1:9">
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2" t="n"/>
     </row>

--- a/lab1_template.xlsx
+++ b/lab1_template.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>Расчет заработной платы сотрудников предприятия ООО "Изумруд"</t>
   </si>
@@ -46,58 +46,61 @@
     <t>Сумма к выдаче, $</t>
   </si>
   <si>
+    <t>Иванов И.М.</t>
+  </si>
+  <si>
+    <t>Бухгалтер</t>
+  </si>
+  <si>
+    <t>30.12.2009</t>
+  </si>
+  <si>
+    <t>Ромашова П.Т.</t>
+  </si>
+  <si>
+    <t>Строитель</t>
+  </si>
+  <si>
+    <t>24.09.2001</t>
+  </si>
+  <si>
+    <t>Морозов И.Р.</t>
+  </si>
+  <si>
+    <t>16.01.2013</t>
+  </si>
+  <si>
     <t>Коробова П.Н</t>
   </si>
   <si>
-    <t>Директор</t>
-  </si>
-  <si>
-    <t>18.06.2006</t>
+    <t>Водитель</t>
+  </si>
+  <si>
+    <t>05.07.2000</t>
   </si>
   <si>
     <t>Смирнов С.И.</t>
   </si>
   <si>
-    <t>Бухгалтер</t>
-  </si>
-  <si>
-    <t>01.11.2008</t>
+    <t>Секетарь</t>
+  </si>
+  <si>
+    <t>04.09.2005</t>
   </si>
   <si>
     <t>Соколова О.С.</t>
   </si>
   <si>
-    <t>09.07.2013</t>
+    <t>10.09.2016</t>
   </si>
   <si>
     <t>Петров Г.Т.</t>
   </si>
   <si>
-    <t>Секетарь</t>
-  </si>
-  <si>
-    <t>28.03.2005</t>
-  </si>
-  <si>
-    <t>Иванов И.М.</t>
-  </si>
-  <si>
-    <t>20.10.2012</t>
-  </si>
-  <si>
-    <t>Ромашова П.Т.</t>
-  </si>
-  <si>
-    <t>Строитель</t>
-  </si>
-  <si>
-    <t>21.10.2002</t>
-  </si>
-  <si>
-    <t>Морозов И.Р.</t>
-  </si>
-  <si>
-    <t>27.02.2001</t>
+    <t>Зам. директора</t>
+  </si>
+  <si>
+    <t>20.09.2009</t>
   </si>
   <si>
     <t xml:space="preserve">Курс доллара: </t>
@@ -616,10 +619,10 @@
         <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" s="3" t="n"/>
       <c r="F9" s="3" t="n"/>
@@ -632,10 +635,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>25</v>
@@ -654,10 +657,10 @@
         <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" s="3" t="n"/>
       <c r="F11" s="3" t="n"/>
@@ -672,7 +675,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>48</v>
@@ -680,19 +683,19 @@
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="n"/>
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="n"/>
     </row>
     <row r="17" spans="1:9">
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="2" t="n"/>
     </row>

--- a/lab1_template.xlsx
+++ b/lab1_template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>Расчет заработной платы сотрудников предприятия ООО "Изумруд"</t>
   </si>
@@ -46,61 +46,58 @@
     <t>Сумма к выдаче, $</t>
   </si>
   <si>
+    <t>Смирнов С.И.</t>
+  </si>
+  <si>
+    <t>Водитель</t>
+  </si>
+  <si>
+    <t>04.11.2006</t>
+  </si>
+  <si>
+    <t>Петров Г.Т.</t>
+  </si>
+  <si>
+    <t>01.12.2010</t>
+  </si>
+  <si>
+    <t>Коробова П.Н</t>
+  </si>
+  <si>
+    <t>Зам. директора</t>
+  </si>
+  <si>
+    <t>05.01.2002</t>
+  </si>
+  <si>
     <t>Иванов И.М.</t>
   </si>
   <si>
+    <t>18.08.2000</t>
+  </si>
+  <si>
+    <t>Ромашова П.Т.</t>
+  </si>
+  <si>
+    <t>Директор</t>
+  </si>
+  <si>
+    <t>21.09.2000</t>
+  </si>
+  <si>
+    <t>Морозов И.Р.</t>
+  </si>
+  <si>
+    <t>02.02.2006</t>
+  </si>
+  <si>
+    <t>Соколова О.С.</t>
+  </si>
+  <si>
     <t>Бухгалтер</t>
   </si>
   <si>
-    <t>30.12.2009</t>
-  </si>
-  <si>
-    <t>Ромашова П.Т.</t>
-  </si>
-  <si>
-    <t>Строитель</t>
-  </si>
-  <si>
-    <t>24.09.2001</t>
-  </si>
-  <si>
-    <t>Морозов И.Р.</t>
-  </si>
-  <si>
-    <t>16.01.2013</t>
-  </si>
-  <si>
-    <t>Коробова П.Н</t>
-  </si>
-  <si>
-    <t>Водитель</t>
-  </si>
-  <si>
-    <t>05.07.2000</t>
-  </si>
-  <si>
-    <t>Смирнов С.И.</t>
-  </si>
-  <si>
-    <t>Секетарь</t>
-  </si>
-  <si>
-    <t>04.09.2005</t>
-  </si>
-  <si>
-    <t>Соколова О.С.</t>
-  </si>
-  <si>
-    <t>10.09.2016</t>
-  </si>
-  <si>
-    <t>Петров Г.Т.</t>
-  </si>
-  <si>
-    <t>Зам. директора</t>
-  </si>
-  <si>
-    <t>20.09.2009</t>
+    <t>25.01.2015</t>
   </si>
   <si>
     <t xml:space="preserve">Курс доллара: </t>
@@ -562,10 +559,10 @@
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="E6" s="3" t="n"/>
       <c r="F6" s="3" t="n"/>
@@ -578,10 +575,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>17</v>
@@ -600,10 +597,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="E8" s="3" t="n"/>
       <c r="F8" s="3" t="n"/>
@@ -616,13 +613,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="E9" s="3" t="n"/>
       <c r="F9" s="3" t="n"/>
@@ -635,13 +632,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="E10" s="3" t="n"/>
       <c r="F10" s="3" t="n"/>
@@ -654,13 +651,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="E11" s="3" t="n"/>
       <c r="F11" s="3" t="n"/>
@@ -675,7 +672,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>48</v>
@@ -683,19 +680,19 @@
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="n"/>
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="n"/>
     </row>
     <row r="17" spans="1:9">
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2" t="n"/>
     </row>

--- a/lab1_template.xlsx
+++ b/lab1_template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>Расчет заработной платы сотрудников предприятия ООО "Изумруд"</t>
   </si>
@@ -46,58 +46,67 @@
     <t>Сумма к выдаче, $</t>
   </si>
   <si>
+    <t>Иванов И.М.</t>
+  </si>
+  <si>
+    <t>Директор</t>
+  </si>
+  <si>
+    <t>08.05.2012</t>
+  </si>
+  <si>
+    <t>Коробова П.Н</t>
+  </si>
+  <si>
+    <t>Менеджер</t>
+  </si>
+  <si>
+    <t>07.01.2003</t>
+  </si>
+  <si>
+    <t>Морозов И.Р.</t>
+  </si>
+  <si>
+    <t>Бухгалтер</t>
+  </si>
+  <si>
+    <t>27.07.2000</t>
+  </si>
+  <si>
+    <t>Петров Г.Т.</t>
+  </si>
+  <si>
+    <t>Зам. директора</t>
+  </si>
+  <si>
+    <t>26.06.2006</t>
+  </si>
+  <si>
+    <t>Ромашова П.Т.</t>
+  </si>
+  <si>
+    <t>Секетарь</t>
+  </si>
+  <si>
+    <t>30.06.2001</t>
+  </si>
+  <si>
     <t>Смирнов С.И.</t>
   </si>
   <si>
     <t>Водитель</t>
   </si>
   <si>
-    <t>04.11.2006</t>
-  </si>
-  <si>
-    <t>Петров Г.Т.</t>
-  </si>
-  <si>
-    <t>01.12.2010</t>
-  </si>
-  <si>
-    <t>Коробова П.Н</t>
-  </si>
-  <si>
-    <t>Зам. директора</t>
-  </si>
-  <si>
-    <t>05.01.2002</t>
-  </si>
-  <si>
-    <t>Иванов И.М.</t>
-  </si>
-  <si>
-    <t>18.08.2000</t>
-  </si>
-  <si>
-    <t>Ромашова П.Т.</t>
-  </si>
-  <si>
-    <t>Директор</t>
-  </si>
-  <si>
-    <t>21.09.2000</t>
-  </si>
-  <si>
-    <t>Морозов И.Р.</t>
-  </si>
-  <si>
-    <t>02.02.2006</t>
+    <t>18.11.2006</t>
   </si>
   <si>
     <t>Соколова О.С.</t>
   </si>
   <si>
-    <t>Бухгалтер</t>
-  </si>
-  <si>
-    <t>25.01.2015</t>
+    <t>Строитель</t>
+  </si>
+  <si>
+    <t>28.04.2006</t>
   </si>
   <si>
     <t xml:space="preserve">Курс доллара: </t>
@@ -559,10 +568,10 @@
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3" t="n"/>
       <c r="F6" s="3" t="n"/>
@@ -575,13 +584,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="3" t="n"/>
       <c r="F7" s="3" t="n"/>
@@ -594,13 +603,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E8" s="3" t="n"/>
       <c r="F8" s="3" t="n"/>
@@ -613,13 +622,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9" s="3" t="n"/>
       <c r="F9" s="3" t="n"/>
@@ -632,13 +641,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E10" s="3" t="n"/>
       <c r="F10" s="3" t="n"/>
@@ -651,13 +660,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E11" s="3" t="n"/>
       <c r="F11" s="3" t="n"/>
@@ -672,7 +681,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>48</v>
@@ -680,19 +689,19 @@
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="n"/>
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="n"/>
     </row>
     <row r="17" spans="1:9">
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="n"/>
     </row>

--- a/lab1_template.xlsx
+++ b/lab1_template.xlsx
@@ -52,7 +52,7 @@
     <t>Директор</t>
   </si>
   <si>
-    <t>08.05.2012</t>
+    <t>19.06.2003</t>
   </si>
   <si>
     <t>Коробова П.Н</t>
@@ -61,7 +61,7 @@
     <t>Менеджер</t>
   </si>
   <si>
-    <t>07.01.2003</t>
+    <t>01.01.2001</t>
   </si>
   <si>
     <t>Морозов И.Р.</t>
@@ -70,7 +70,7 @@
     <t>Бухгалтер</t>
   </si>
   <si>
-    <t>27.07.2000</t>
+    <t>12.10.2008</t>
   </si>
   <si>
     <t>Петров Г.Т.</t>
@@ -79,7 +79,7 @@
     <t>Зам. директора</t>
   </si>
   <si>
-    <t>26.06.2006</t>
+    <t>20.12.2004</t>
   </si>
   <si>
     <t>Ромашова П.Т.</t>
@@ -88,7 +88,7 @@
     <t>Секетарь</t>
   </si>
   <si>
-    <t>30.06.2001</t>
+    <t>15.10.2010</t>
   </si>
   <si>
     <t>Смирнов С.И.</t>
@@ -97,7 +97,7 @@
     <t>Водитель</t>
   </si>
   <si>
-    <t>18.11.2006</t>
+    <t>18.01.2017</t>
   </si>
   <si>
     <t>Соколова О.С.</t>
@@ -106,7 +106,7 @@
     <t>Строитель</t>
   </si>
   <si>
-    <t>28.04.2006</t>
+    <t>01.02.2015</t>
   </si>
   <si>
     <t xml:space="preserve">Курс доллара: </t>
